--- a/data/terran_data.xlsx
+++ b/data/terran_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bradychiu/Dropbox (Uber Technologies)/R/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bradychiu/Dropbox (Uber Technologies)/R/sc2_unit_clustering/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="118">
   <si>
     <t>Auto-Turret</t>
   </si>
@@ -275,21 +275,12 @@
     <t>30 (+3) x2</t>
   </si>
   <si>
-    <t>6 (+1) x4[1],</t>
-  </si>
-  <si>
-    <t>24(+2) [2]</t>
-  </si>
-  <si>
     <t>+6 (+1) L Air</t>
   </si>
   <si>
     <t>46.9 (+4.7)</t>
   </si>
   <si>
-    <t>8 (+1.3),</t>
-  </si>
-  <si>
     <t>12 (+1)</t>
   </si>
   <si>
@@ -384,6 +375,12 @@
   </si>
   <si>
     <t>sight</t>
+  </si>
+  <si>
+    <t>6 (+1) x4[1], 24(+2) [2]</t>
+  </si>
+  <si>
+    <t>8 (+1.3), 12 (+1)</t>
   </si>
 </sst>
 </file>
@@ -451,8 +448,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1078,77 +1075,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U24"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="U21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="17" x14ac:dyDescent="0.2">
@@ -2356,66 +2353,104 @@
         <v>81</v>
       </c>
       <c r="L20" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M20" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="M20" s="6" t="s">
-        <v>84</v>
-      </c>
       <c r="N20" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="P20" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="O20" s="4" t="s">
+      <c r="Q20" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="P20" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q20" s="5" t="s">
-        <v>89</v>
-      </c>
       <c r="R20" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="S20" s="6">
         <v>1.875</v>
       </c>
       <c r="T20" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="U20" s="6">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
+      <c r="A21" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="4">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4">
+        <v>150</v>
+      </c>
+      <c r="D21" s="4">
+        <v>75</v>
+      </c>
+      <c r="E21" s="4">
+        <v>42</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G21" s="4">
+        <v>2</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="4">
+        <v>125</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="O21" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R21" s="4">
+        <v>1</v>
+      </c>
+      <c r="S21" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="T21" s="4">
+        <v>6</v>
+      </c>
+      <c r="U21" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B22" s="4">
         <v>2</v>
@@ -2432,8 +2467,8 @@
       <c r="F22" s="4">
         <v>1.5</v>
       </c>
-      <c r="G22" s="4">
-        <v>2</v>
+      <c r="G22" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>7</v>
@@ -2445,34 +2480,34 @@
         <v>51</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R22" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S22" s="4">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T22" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U22" s="4">
         <v>10</v>
@@ -2486,150 +2521,64 @@
         <v>2</v>
       </c>
       <c r="C23" s="4">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="D23" s="4">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="E23" s="4">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F23" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G23" s="4">
+        <v>2</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I23" s="4">
+        <v>90</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="4">
         <v>125</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>1</v>
-      </c>
       <c r="L23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M23" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="M23" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="N23" s="4" t="s">
         <v>1</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="R23" s="4">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S23" s="4">
-        <v>2.75</v>
+        <v>2.8125</v>
       </c>
       <c r="T23" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U23" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24" s="4">
-        <v>2</v>
-      </c>
-      <c r="C24" s="4">
-        <v>75</v>
-      </c>
-      <c r="D24" s="4">
-        <v>25</v>
-      </c>
-      <c r="E24" s="4">
-        <v>40</v>
-      </c>
-      <c r="F24" s="4">
-        <v>1</v>
-      </c>
-      <c r="G24" s="4">
-        <v>2</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="4">
-        <v>90</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K24" s="4">
-        <v>125</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="P24" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="R24" s="4">
-        <v>40</v>
-      </c>
-      <c r="S24" s="4">
-        <v>2.8125</v>
-      </c>
-      <c r="T24" s="4">
-        <v>5</v>
-      </c>
-      <c r="U24" s="4">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="U20:U21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="T20:T21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="N1" r:id="rId1" tooltip="DPS" display="G. DPS"/>
     <hyperlink ref="R1" r:id="rId2" tooltip="Cooldown" display="Cooldown"/>
@@ -2655,14 +2604,13 @@
     <hyperlink ref="A18" r:id="rId22" tooltip="Siege Tank"/>
     <hyperlink ref="A19" r:id="rId23" tooltip="Siege Tank"/>
     <hyperlink ref="A20" r:id="rId24" tooltip="Thor"/>
-    <hyperlink ref="L20" r:id="rId25" location="cite_note-explosivepayload-1"/>
-    <hyperlink ref="L21" r:id="rId26" location="cite_note-highimpactpayload-2"/>
-    <hyperlink ref="Q20" r:id="rId27" location="cite_note-explosivepayload-1"/>
+    <hyperlink ref="L20" r:id="rId25" location="cite_note-explosivepayload-1" display="6 (+1) x4[1],"/>
+    <hyperlink ref="Q20" r:id="rId26" location="cite_note-explosivepayload-1"/>
+    <hyperlink ref="A21" r:id="rId27" tooltip="Viking"/>
     <hyperlink ref="A22" r:id="rId28" tooltip="Viking"/>
-    <hyperlink ref="A23" r:id="rId29" tooltip="Viking"/>
-    <hyperlink ref="A24" r:id="rId30" tooltip="Widow Mine"/>
+    <hyperlink ref="A23" r:id="rId29" tooltip="Widow Mine"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId31"/>
+  <drawing r:id="rId30"/>
 </worksheet>
 </file>